--- a/Backlog, Historias de Usuario y Vista App.xlsx
+++ b/Backlog, Historias de Usuario y Vista App.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Mintic-2020\Ciclo-4\Desarrollo-movil\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CA5166-C77C-4336-B2BD-4B69DAC60BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D12FFC-666B-4BA4-9F2D-EA6C69B68EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DCBD3D0E-B379-452B-BE7E-0B587C9294B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DCBD3D0E-B379-452B-BE7E-0B587C9294B4}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog " sheetId="2" r:id="rId1"/>
@@ -21,6 +21,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1695,99 +1704,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1798,10 +1714,103 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Celda vinculada" xfId="1" builtinId="24"/>
@@ -2295,48 +2304,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>128905</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Imagen 14" descr="Texto, Aplicación&#10;&#10;Descripción generada automáticamente">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2715BBC2-DF2E-4323-A253-26AD7D82FA36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3048000" y="21145500"/>
-          <a:ext cx="2460625" cy="4319905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>111</xdr:row>
@@ -2360,7 +2327,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2402,7 +2369,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2444,7 +2411,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2486,7 +2453,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2528,7 +2495,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2570,7 +2537,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2612,7 +2579,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2627,6 +2594,49 @@
         <a:xfrm>
           <a:off x="0" y="10858500"/>
           <a:ext cx="2063115" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>130489</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>129000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80047603-D521-4723-8B4C-D593CE89A307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:srcRect r="1322"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="21336000"/>
+          <a:ext cx="2445064" cy="4320000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2938,8 +2948,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2973,10 +2983,10 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35">
+      <c r="B3" s="32">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2993,8 +3003,8 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="3" t="s">
         <v>64</v>
       </c>
@@ -3009,8 +3019,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
-      <c r="C5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
@@ -3068,11 +3078,11 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="30">
+      <c r="B8" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="38" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -3089,8 +3099,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="14" t="s">
         <v>25</v>
       </c>
@@ -3105,8 +3115,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="28"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="14" t="s">
         <v>24</v>
       </c>
@@ -3121,8 +3131,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="16" t="s">
         <v>23</v>
       </c>
@@ -3137,11 +3147,11 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="35">
+      <c r="B12" s="32">
         <f>B8+1</f>
         <v>5</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -3158,8 +3168,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
-      <c r="C13" s="37"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
@@ -3174,8 +3184,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
@@ -3190,8 +3200,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="3" t="s">
         <v>31</v>
       </c>
@@ -3206,8 +3216,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="3" t="s">
         <v>30</v>
       </c>
@@ -3222,8 +3232,8 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="38"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
@@ -3238,8 +3248,8 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
@@ -3254,8 +3264,8 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="36"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
@@ -3270,11 +3280,11 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="30">
+      <c r="B20" s="41">
         <f>B12+1</f>
         <v>6</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -3291,8 +3301,8 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="14" t="s">
         <v>37</v>
       </c>
@@ -3307,8 +3317,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="14" t="s">
         <v>36</v>
       </c>
@@ -3323,8 +3333,8 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
-      <c r="C23" s="29"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="16" t="s">
         <v>35</v>
       </c>
@@ -3339,11 +3349,11 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="35">
+      <c r="B24" s="32">
         <f>B20+1</f>
         <v>7</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="35" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3360,8 +3370,8 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="36"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="2" t="s">
         <v>39</v>
       </c>
@@ -3376,11 +3386,11 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="30">
+      <c r="B26" s="41">
         <f>B24+1</f>
         <v>8</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="38" t="s">
         <v>70</v>
       </c>
       <c r="D26" s="12" t="s">
@@ -3397,8 +3407,8 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="32"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="16" t="s">
         <v>72</v>
       </c>
@@ -3413,11 +3423,11 @@
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="35">
+      <c r="B28" s="32">
         <f>B26+1</f>
         <v>9</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="35" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3434,8 +3444,8 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
-      <c r="C29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="2" t="s">
         <v>41</v>
       </c>
@@ -3450,11 +3460,11 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="30">
+      <c r="B30" s="41">
         <f>B28+1</f>
         <v>10</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="38" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -3471,8 +3481,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="31"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="14" t="s">
         <v>62</v>
       </c>
@@ -3487,8 +3497,8 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="31"/>
-      <c r="C32" s="28"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="14" t="s">
         <v>44</v>
       </c>
@@ -3503,8 +3513,8 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="32"/>
-      <c r="C33" s="29"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="16" t="s">
         <v>43</v>
       </c>
@@ -3519,11 +3529,11 @@
       </c>
     </row>
     <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="35">
+      <c r="B34" s="32">
         <f>B30+1</f>
         <v>11</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3540,8 +3550,8 @@
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="36"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="2" t="s">
         <v>43</v>
       </c>
@@ -3556,11 +3566,11 @@
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="30">
+      <c r="B36" s="41">
         <f>B34+1</f>
         <v>12</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="38" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="12" t="s">
@@ -3577,8 +3587,8 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="31"/>
-      <c r="C37" s="28"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="14" t="s">
         <v>48</v>
       </c>
@@ -3593,8 +3603,8 @@
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="32"/>
-      <c r="C38" s="29"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="16" t="s">
         <v>47</v>
       </c>
@@ -3609,11 +3619,11 @@
       </c>
     </row>
     <row r="39" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B39" s="35">
+      <c r="B39" s="32">
         <f>B36+1</f>
         <v>13</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3630,8 +3640,8 @@
       </c>
     </row>
     <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="38"/>
-      <c r="C40" s="37"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="3" t="s">
         <v>61</v>
       </c>
@@ -3646,8 +3656,8 @@
       </c>
     </row>
     <row r="41" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B41" s="38"/>
-      <c r="C41" s="37"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="3" t="s">
         <v>60</v>
       </c>
@@ -3662,8 +3672,8 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="38"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="3" t="s">
         <v>59</v>
       </c>
@@ -3678,8 +3688,8 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B43" s="38"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="3" t="s">
         <v>58</v>
       </c>
@@ -3694,8 +3704,8 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="38"/>
-      <c r="C44" s="37"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="3" t="s">
         <v>57</v>
       </c>
@@ -3710,8 +3720,8 @@
       </c>
     </row>
     <row r="45" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B45" s="38"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="3" t="s">
         <v>78</v>
       </c>
@@ -3726,8 +3736,8 @@
       </c>
     </row>
     <row r="46" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="38"/>
-      <c r="C46" s="37"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="3" t="s">
         <v>56</v>
       </c>
@@ -3742,8 +3752,8 @@
       </c>
     </row>
     <row r="47" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B47" s="38"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="3" t="s">
         <v>55</v>
       </c>
@@ -3758,8 +3768,8 @@
       </c>
     </row>
     <row r="48" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="36"/>
-      <c r="C48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="2" t="s">
         <v>54</v>
       </c>
@@ -3774,11 +3784,11 @@
       </c>
     </row>
     <row r="49" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B49" s="30">
+      <c r="B49" s="41">
         <f>B39+1</f>
         <v>14</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="38" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="12" t="s">
@@ -3795,8 +3805,8 @@
       </c>
     </row>
     <row r="50" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="31"/>
-      <c r="C50" s="28"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="14" t="s">
         <v>74</v>
       </c>
@@ -3811,8 +3821,8 @@
       </c>
     </row>
     <row r="51" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="31"/>
-      <c r="C51" s="28"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="14" t="s">
         <v>53</v>
       </c>
@@ -3827,8 +3837,8 @@
       </c>
     </row>
     <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="32"/>
-      <c r="C52" s="29"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="16" t="s">
         <v>52</v>
       </c>
@@ -3843,11 +3853,11 @@
       </c>
     </row>
     <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="35">
+      <c r="B53" s="32">
         <f>B49+1</f>
         <v>15</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -3864,8 +3874,8 @@
       </c>
     </row>
     <row r="54" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="36"/>
-      <c r="C54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="2" t="s">
         <v>51</v>
       </c>
@@ -3881,24 +3891,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B34:B35"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C53:C54"/>
@@ -3907,6 +3899,24 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="C39:C48"/>
     <mergeCell ref="B39:B48"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="B12:B19"/>
   </mergeCells>
   <conditionalFormatting sqref="E3">
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Alta+$H$3:$H$54">
@@ -3972,907 +3982,964 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA31C5A-02B2-4B04-A8EE-BCB9A4156E00}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A57" sqref="A49:F58"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
+      <c r="I1" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="41"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="43"/>
-      <c r="I2" s="42" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="I2" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="50"/>
+      <c r="K2" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="43"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="43"/>
-      <c r="I3" s="45" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="I3" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="43"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="45" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="43"/>
-      <c r="I4" s="45" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="I4" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="45" t="s">
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="43"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="45" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="43"/>
-      <c r="I5" s="45" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="I5" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="45" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="43"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="43"/>
-      <c r="I6" s="45" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="I6" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="43"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="I7" s="46" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="I7" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="48"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="51"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="56"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="I9" s="52" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="I9" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="I13" s="53" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
+      <c r="I13" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="42" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="43"/>
-      <c r="I14" s="54" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="I14" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54" t="s">
+      <c r="J14" s="45"/>
+      <c r="K14" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="43"/>
-      <c r="I15" s="55" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="I15" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="45" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="43"/>
-      <c r="I16" s="55" t="s">
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="I16" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="55" t="s">
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="45" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="43"/>
-      <c r="I17" s="55" t="s">
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="I17" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="55" t="s">
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="43"/>
-      <c r="I18" s="55" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="I18" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="I19" s="56" t="s">
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="I19" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="I21" s="57" t="s">
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="I21" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="I25" s="53" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="I25" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="I26" s="54" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="I27" s="55" t="s">
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="I27" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55" t="s">
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="I28" s="55" t="s">
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="I28" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="55" t="s">
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55" t="s">
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="I29" s="55" t="s">
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="I29" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="55" t="s">
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="I30" s="55" t="s">
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="I30" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="I31" s="56" t="s">
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="I31" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="I33" s="56" t="s">
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="I33" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="I37" s="53" t="s">
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="I37" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54" t="s">
+      <c r="B38" s="45"/>
+      <c r="C38" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="I38" s="54" t="s">
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="I38" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54" t="s">
+      <c r="J38" s="45"/>
+      <c r="K38" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="I39" s="55" t="s">
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="I39" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55" t="s">
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="I40" s="55" t="s">
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="I40" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="55" t="s">
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="55" t="s">
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="I41" s="55" t="s">
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="I41" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="55" t="s">
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="I42" s="55" t="s">
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="I42" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="I43" s="56" t="s">
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="I43" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="I45" s="56" t="s">
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="I45" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54" t="s">
+      <c r="B50" s="45"/>
+      <c r="C50" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="55" t="s">
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="55" t="s">
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:F56"/>
-    <mergeCell ref="A57:F58"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="A43:F44"/>
-    <mergeCell ref="I43:N44"/>
-    <mergeCell ref="A45:F46"/>
-    <mergeCell ref="I45:N46"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="A7:F8"/>
+    <mergeCell ref="I7:N8"/>
+    <mergeCell ref="A9:F10"/>
+    <mergeCell ref="I9:N10"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="A19:F20"/>
+    <mergeCell ref="I19:N20"/>
+    <mergeCell ref="A21:F22"/>
+    <mergeCell ref="I21:N22"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="A31:F32"/>
+    <mergeCell ref="I31:N32"/>
+    <mergeCell ref="A33:F34"/>
+    <mergeCell ref="I33:N34"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="I39:N39"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="I40:K40"/>
@@ -4881,80 +4948,23 @@
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="I41:K41"/>
     <mergeCell ref="L41:N41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="A31:F32"/>
-    <mergeCell ref="I31:N32"/>
-    <mergeCell ref="A33:F34"/>
-    <mergeCell ref="I33:N34"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="A19:F20"/>
-    <mergeCell ref="I19:N20"/>
-    <mergeCell ref="A21:F22"/>
-    <mergeCell ref="I21:N22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="A7:F8"/>
-    <mergeCell ref="I7:N8"/>
-    <mergeCell ref="A9:F10"/>
-    <mergeCell ref="I9:N10"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="A43:F44"/>
+    <mergeCell ref="I43:N44"/>
+    <mergeCell ref="A45:F46"/>
+    <mergeCell ref="I45:N46"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:F56"/>
+    <mergeCell ref="A57:F58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4964,150 +4974,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157C7D49-7CAF-4433-BCBE-FC6FC6FB75AF}">
   <dimension ref="A1:T139"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K140" sqref="K140"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" spans="3:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3" spans="3:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
     </row>
     <row r="29" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
     </row>
     <row r="30" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="62" t="s">
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
     </row>
     <row r="56" spans="3:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
     </row>
     <row r="57" spans="3:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="62" t="s">
+      <c r="C82" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="62"/>
-      <c r="I82" s="62"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
     </row>
     <row r="83" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="62"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
     </row>
     <row r="84" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="109" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F109" s="62" t="s">
+      <c r="F109" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="62"/>
-      <c r="I109" s="62"/>
-      <c r="J109" s="62"/>
-      <c r="K109" s="62"/>
-      <c r="L109" s="62"/>
-      <c r="M109" s="62"/>
-      <c r="N109" s="62"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="63"/>
+      <c r="J109" s="63"/>
+      <c r="K109" s="63"/>
+      <c r="L109" s="63"/>
+      <c r="M109" s="63"/>
+      <c r="N109" s="63"/>
     </row>
     <row r="110" spans="6:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F110" s="62"/>
-      <c r="G110" s="62"/>
-      <c r="H110" s="62"/>
-      <c r="I110" s="62"/>
-      <c r="J110" s="62"/>
-      <c r="K110" s="62"/>
-      <c r="L110" s="62"/>
-      <c r="M110" s="62"/>
-      <c r="N110" s="62"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="63"/>
+      <c r="H110" s="63"/>
+      <c r="I110" s="63"/>
+      <c r="J110" s="63"/>
+      <c r="K110" s="63"/>
+      <c r="L110" s="63"/>
+      <c r="M110" s="63"/>
+      <c r="N110" s="63"/>
     </row>
     <row r="111" spans="6:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="138" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="63"/>
-      <c r="B138" s="63"/>
-      <c r="C138" s="63"/>
-      <c r="D138" s="63"/>
-      <c r="E138" s="63"/>
-      <c r="F138" s="63"/>
-      <c r="G138" s="63"/>
-      <c r="H138" s="63"/>
-      <c r="I138" s="63"/>
-      <c r="J138" s="63"/>
-      <c r="K138" s="63"/>
-      <c r="L138" s="63"/>
-      <c r="M138" s="63"/>
-      <c r="N138" s="63"/>
-      <c r="O138" s="63"/>
-      <c r="P138" s="63"/>
-      <c r="Q138" s="63"/>
-      <c r="R138" s="63"/>
-      <c r="S138" s="63"/>
-      <c r="T138" s="63"/>
+      <c r="A138" s="31"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
+      <c r="I138" s="31"/>
+      <c r="J138" s="31"/>
+      <c r="K138" s="31"/>
+      <c r="L138" s="31"/>
+      <c r="M138" s="31"/>
+      <c r="N138" s="31"/>
+      <c r="O138" s="31"/>
+      <c r="P138" s="31"/>
+      <c r="Q138" s="31"/>
+      <c r="R138" s="31"/>
+      <c r="S138" s="31"/>
+      <c r="T138" s="31"/>
     </row>
     <row r="139" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
